--- a/TIQRI.ITS.Web/Content/Sample/assetBulk.xlsx
+++ b/TIQRI.ITS.Web/Content/Sample/assetBulk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psn\Documents\Tiqri\New_Repo\new clone\TQRAssets\TIQRI.ITS.Web\Content\Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psn\Documents\Tiqri\New_Repo\TQRAssets\TIQRI.ITS.Web\Content\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D156D57A-8C72-4F37-A974-F8E7337CA0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CFBA9F-5DF2-4A00-9255-A0B5998B7B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{04F05535-2B92-4A99-B0B3-1A5D95034E61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04F05535-2B92-4A99-B0B3-1A5D95034E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>Model</t>
   </si>
@@ -57,6 +57,9 @@
     <t>Cost</t>
   </si>
   <si>
+    <t>E333</t>
+  </si>
+  <si>
     <t>UserDisplayName</t>
   </si>
   <si>
@@ -111,12 +114,27 @@
     <t>note</t>
   </si>
   <si>
+    <t>654adasdTEST2</t>
+  </si>
+  <si>
     <t>654adasdTEST1</t>
   </si>
   <si>
+    <t>Onila Pemathunge</t>
+  </si>
+  <si>
+    <t>onp@tiqri.com</t>
+  </si>
+  <si>
     <t>T530</t>
   </si>
   <si>
+    <t>psn@tiqri.com</t>
+  </si>
+  <si>
+    <t>Pasindu Sanjana</t>
+  </si>
+  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -129,7 +147,16 @@
     <t>DUSTIN</t>
   </si>
   <si>
+    <t>TCC</t>
+  </si>
+  <si>
     <t>Intel Core i7</t>
+  </si>
+  <si>
+    <t>Intel Core i3</t>
+  </si>
+  <si>
+    <t>Intel Core I7</t>
   </si>
   <si>
     <t>ComputerName</t>
@@ -845,19 +872,14 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>853440</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="739140" cy="213360"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
@@ -866,7 +888,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F121D6-75BD-431C-AB29-AE08303F9B92}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -906,25 +928,20 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>853440</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="739140" cy="213360"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
@@ -933,7 +950,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D200D0-2FD7-4C20-97C0-6901B1F6FAE8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -973,25 +990,20 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>853440</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="739140" cy="213360"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
@@ -1000,7 +1012,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A441C805-0F67-4482-B848-F67E41FE5727}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1040,25 +1052,20 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>853440</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="739140" cy="213360"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -1067,7 +1074,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E84B73F-0D87-45F5-B6D9-4B9A67E38C6E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1107,25 +1114,20 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>853440</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="739140" cy="213360"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -1134,7 +1136,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A8D7B5-09F4-4029-A45A-7949126EF851}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1174,25 +1176,20 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>853440</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="739140" cy="213360"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -1201,7 +1198,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2282B356-F331-4354-BC2C-7C0C24B4802C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1241,25 +1238,20 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>853440</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="739140" cy="213360"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -1268,7 +1260,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7CFEE1-90B8-4FC2-BB36-757CB1ECE251}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1308,25 +1300,20 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>853440</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="739140" cy="213360"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -1335,7 +1322,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D4861A-5FFF-41B7-BDE6-433FBEB345D2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1375,7 +1362,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1682,7 +1669,7 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1707,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1725,117 +1712,117 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
         <v>4</v>
       </c>
       <c r="R1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T1" t="s">
         <v>5</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="W1" t="s">
         <v>6</v>
       </c>
       <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
-        <v>20</v>
-      </c>
       <c r="Z1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AA1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AB1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AC1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AD1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1844,10 +1831,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W2">
         <v>300000</v>
@@ -1856,38 +1843,224 @@
         <v>44146</v>
       </c>
       <c r="Y2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="X3" s="2"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3">
+        <v>300000</v>
+      </c>
+      <c r="X3" s="2">
+        <v>44146</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="X4" s="2"/>
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4">
+        <v>300000</v>
+      </c>
+      <c r="X4" s="2">
+        <v>44146</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="X5" s="2"/>
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5">
+        <v>300000</v>
+      </c>
+      <c r="X5" s="2">
+        <v>44146</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{02B19F29-059F-4348-B383-AB440F77F0EC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{7CCE4B8E-8856-4D8C-B87E-13CD16D6A484}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{807C212D-73FD-4989-BB24-158EF7CA3218}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{136C2B76-FCC9-4691-8FBD-A42270137D78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId5" name="Check Box 2">
+            <control shapeId="1026" r:id="rId8" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1909,7 +2082,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId6" name="Check Box 3">
+            <control shapeId="1027" r:id="rId9" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1931,7 +2104,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId7" name="Check Box 4">
+            <control shapeId="1028" r:id="rId10" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1953,7 +2126,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId8" name="Check Box 5">
+            <control shapeId="1029" r:id="rId11" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1975,7 +2148,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId9" name="Check Box 6">
+            <control shapeId="1030" r:id="rId12" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1997,7 +2170,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId10" name="Check Box 7">
+            <control shapeId="1031" r:id="rId13" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2019,7 +2192,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId11" name="Check Box 8">
+            <control shapeId="1032" r:id="rId14" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2041,7 +2214,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId12" name="Check Box 9">
+            <control shapeId="1033" r:id="rId15" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2063,7 +2236,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId13" name="Check Box 10">
+            <control shapeId="1034" r:id="rId16" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2085,7 +2258,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId14" name="Check Box 11">
+            <control shapeId="1035" r:id="rId17" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2107,7 +2280,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId15" name="Check Box 12">
+            <control shapeId="1036" r:id="rId18" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2129,7 +2302,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId16" name="Check Box 13">
+            <control shapeId="1037" r:id="rId19" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2151,7 +2324,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId17" name="Check Box 14">
+            <control shapeId="1038" r:id="rId20" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2173,7 +2346,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId18" name="Check Box 15">
+            <control shapeId="1039" r:id="rId21" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2195,7 +2368,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId19" name="Check Box 16">
+            <control shapeId="1040" r:id="rId22" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2217,7 +2390,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId20" name="Check Box 17">
+            <control shapeId="1041" r:id="rId23" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/TIQRI.ITS.Web/Content/Sample/assetBulk.xlsx
+++ b/TIQRI.ITS.Web/Content/Sample/assetBulk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psn\Documents\Tiqri\New_Repo\TQRAssets\TIQRI.ITS.Web\Content\Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psn\Documents\Tiqri\New_Repo\new clone\TQRAssets\TIQRI.ITS.Web\Content\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CFBA9F-5DF2-4A00-9255-A0B5998B7B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF51110-F93D-41EE-B933-5FBC6FE78F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04F05535-2B92-4A99-B0B3-1A5D95034E61}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{04F05535-2B92-4A99-B0B3-1A5D95034E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Model</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>E333</t>
-  </si>
-  <si>
     <t>UserDisplayName</t>
   </si>
   <si>
@@ -114,27 +111,12 @@
     <t>note</t>
   </si>
   <si>
-    <t>654adasdTEST2</t>
-  </si>
-  <si>
     <t>654adasdTEST1</t>
   </si>
   <si>
-    <t>Onila Pemathunge</t>
-  </si>
-  <si>
-    <t>onp@tiqri.com</t>
-  </si>
-  <si>
     <t>T530</t>
   </si>
   <si>
-    <t>psn@tiqri.com</t>
-  </si>
-  <si>
-    <t>Pasindu Sanjana</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -147,16 +129,7 @@
     <t>DUSTIN</t>
   </si>
   <si>
-    <t>TCC</t>
-  </si>
-  <si>
     <t>Intel Core i7</t>
-  </si>
-  <si>
-    <t>Intel Core i3</t>
-  </si>
-  <si>
-    <t>Intel Core I7</t>
   </si>
   <si>
     <t>ComputerName</t>
@@ -872,14 +845,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
@@ -888,7 +866,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F121D6-75BD-431C-AB29-AE08303F9B92}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -928,20 +906,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
@@ -950,7 +933,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D200D0-2FD7-4C20-97C0-6901B1F6FAE8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -990,20 +973,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
@@ -1012,7 +1000,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A441C805-0F67-4482-B848-F67E41FE5727}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1052,20 +1040,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -1074,7 +1067,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E84B73F-0D87-45F5-B6D9-4B9A67E38C6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1114,20 +1107,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -1136,7 +1134,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A8D7B5-09F4-4029-A45A-7949126EF851}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1176,20 +1174,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -1198,7 +1201,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2282B356-F331-4354-BC2C-7C0C24B4802C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1238,20 +1241,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -1260,7 +1268,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7CFEE1-90B8-4FC2-BB36-757CB1ECE251}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1300,20 +1308,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -1322,7 +1335,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D4861A-5FFF-41B7-BDE6-433FBEB345D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,7 +1375,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1669,7 +1682,7 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1694,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1712,117 +1725,117 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
       <c r="P1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q1" t="s">
         <v>4</v>
       </c>
       <c r="R1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T1" t="s">
         <v>5</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="W1" t="s">
         <v>6</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AA1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AB1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AD1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AE1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1831,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W2">
         <v>300000</v>
@@ -1843,224 +1856,38 @@
         <v>44146</v>
       </c>
       <c r="Y2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE2" t="s">
         <v>24</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3">
-        <v>300000</v>
-      </c>
-      <c r="X3" s="2">
-        <v>44146</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4">
-        <v>300000</v>
-      </c>
-      <c r="X4" s="2">
-        <v>44146</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W5">
-        <v>300000</v>
-      </c>
-      <c r="X5" s="2">
-        <v>44146</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="X5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{02B19F29-059F-4348-B383-AB440F77F0EC}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{7CCE4B8E-8856-4D8C-B87E-13CD16D6A484}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{807C212D-73FD-4989-BB24-158EF7CA3218}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{136C2B76-FCC9-4691-8FBD-A42270137D78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Check Box 2">
+            <control shapeId="1026" r:id="rId5" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2082,7 +1909,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId9" name="Check Box 3">
+            <control shapeId="1027" r:id="rId6" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2104,7 +1931,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId10" name="Check Box 4">
+            <control shapeId="1028" r:id="rId7" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2126,7 +1953,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId11" name="Check Box 5">
+            <control shapeId="1029" r:id="rId8" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2148,7 +1975,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId12" name="Check Box 6">
+            <control shapeId="1030" r:id="rId9" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2170,7 +1997,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId13" name="Check Box 7">
+            <control shapeId="1031" r:id="rId10" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2192,7 +2019,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId14" name="Check Box 8">
+            <control shapeId="1032" r:id="rId11" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2214,7 +2041,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId15" name="Check Box 9">
+            <control shapeId="1033" r:id="rId12" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2236,7 +2063,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId16" name="Check Box 10">
+            <control shapeId="1034" r:id="rId13" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2258,7 +2085,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId17" name="Check Box 11">
+            <control shapeId="1035" r:id="rId14" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2280,7 +2107,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId18" name="Check Box 12">
+            <control shapeId="1036" r:id="rId15" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2302,7 +2129,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId19" name="Check Box 13">
+            <control shapeId="1037" r:id="rId16" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2324,7 +2151,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId20" name="Check Box 14">
+            <control shapeId="1038" r:id="rId17" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2346,7 +2173,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId21" name="Check Box 15">
+            <control shapeId="1039" r:id="rId18" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2368,7 +2195,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId22" name="Check Box 16">
+            <control shapeId="1040" r:id="rId19" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2390,7 +2217,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId23" name="Check Box 17">
+            <control shapeId="1041" r:id="rId20" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/TIQRI.ITS.Web/Content/Sample/assetBulk.xlsx
+++ b/TIQRI.ITS.Web/Content/Sample/assetBulk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psn\Documents\Tiqri\New_Repo\TQRAssets\TIQRI.ITS.Web\Content\Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psn\source\repos\Prod Release 18.03.2022\TQRAssets\TIQRI.ITS.Web\Content\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CFBA9F-5DF2-4A00-9255-A0B5998B7B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E3F96-C80B-4158-B229-DD13B3F1191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04F05535-2B92-4A99-B0B3-1A5D95034E61}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{04F05535-2B92-4A99-B0B3-1A5D95034E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Model</t>
   </si>
@@ -57,21 +57,12 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>E333</t>
-  </si>
-  <si>
     <t>UserDisplayName</t>
   </si>
   <si>
     <t>UserId</t>
   </si>
   <si>
-    <t>tpr@tiqri.com</t>
-  </si>
-  <si>
-    <t>Thushara Priyantha</t>
-  </si>
-  <si>
     <t>64GB</t>
   </si>
   <si>
@@ -114,27 +105,12 @@
     <t>note</t>
   </si>
   <si>
-    <t>654adasdTEST2</t>
-  </si>
-  <si>
     <t>654adasdTEST1</t>
   </si>
   <si>
-    <t>Onila Pemathunge</t>
-  </si>
-  <si>
-    <t>onp@tiqri.com</t>
-  </si>
-  <si>
     <t>T530</t>
   </si>
   <si>
-    <t>psn@tiqri.com</t>
-  </si>
-  <si>
-    <t>Pasindu Sanjana</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -147,18 +123,9 @@
     <t>DUSTIN</t>
   </si>
   <si>
-    <t>TCC</t>
-  </si>
-  <si>
     <t>Intel Core i7</t>
   </si>
   <si>
-    <t>Intel Core i3</t>
-  </si>
-  <si>
-    <t>Intel Core I7</t>
-  </si>
-  <si>
     <t>ComputerName</t>
   </si>
   <si>
@@ -202,6 +169,15 @@
   </si>
   <si>
     <t>MobileName</t>
+  </si>
+  <si>
+    <t>example@tiqri.com</t>
+  </si>
+  <si>
+    <t>name of user</t>
+  </si>
+  <si>
+    <t>&lt;if any&gt;</t>
   </si>
 </sst>
 </file>
@@ -872,14 +848,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
@@ -888,7 +869,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F121D6-75BD-431C-AB29-AE08303F9B92}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -928,20 +909,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
@@ -950,7 +936,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D200D0-2FD7-4C20-97C0-6901B1F6FAE8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -990,20 +976,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
@@ -1012,7 +1003,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A441C805-0F67-4482-B848-F67E41FE5727}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1052,20 +1043,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -1074,7 +1070,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E84B73F-0D87-45F5-B6D9-4B9A67E38C6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1114,20 +1110,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -1136,7 +1137,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A8D7B5-09F4-4029-A45A-7949126EF851}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1176,20 +1177,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -1198,7 +1204,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2282B356-F331-4354-BC2C-7C0C24B4802C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1238,20 +1244,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -1260,7 +1271,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7CFEE1-90B8-4FC2-BB36-757CB1ECE251}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1300,20 +1311,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="739140" cy="213360"/>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -1322,7 +1338,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D4861A-5FFF-41B7-BDE6-433FBEB345D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,7 +1378,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1669,12 +1685,12 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="5" width="21.44140625" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
     <col min="9" max="9" width="14.77734375" customWidth="1"/>
@@ -1694,16 +1710,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1712,117 +1728,123 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q1" t="s">
         <v>4</v>
       </c>
       <c r="R1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
         <v>5</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="W1" t="s">
         <v>6</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AA1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AB1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AD1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AE1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1831,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="W2">
         <v>300000</v>
@@ -1843,224 +1865,38 @@
         <v>44146</v>
       </c>
       <c r="Y2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3">
-        <v>300000</v>
-      </c>
-      <c r="X3" s="2">
-        <v>44146</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4">
-        <v>300000</v>
-      </c>
-      <c r="X4" s="2">
-        <v>44146</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W5">
-        <v>300000</v>
-      </c>
-      <c r="X5" s="2">
-        <v>44146</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="X5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{02B19F29-059F-4348-B383-AB440F77F0EC}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{7CCE4B8E-8856-4D8C-B87E-13CD16D6A484}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{807C212D-73FD-4989-BB24-158EF7CA3218}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{136C2B76-FCC9-4691-8FBD-A42270137D78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Check Box 2">
+            <control shapeId="1026" r:id="rId5" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2082,7 +1918,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId9" name="Check Box 3">
+            <control shapeId="1027" r:id="rId6" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2104,7 +1940,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId10" name="Check Box 4">
+            <control shapeId="1028" r:id="rId7" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2126,7 +1962,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId11" name="Check Box 5">
+            <control shapeId="1029" r:id="rId8" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2148,7 +1984,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId12" name="Check Box 6">
+            <control shapeId="1030" r:id="rId9" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2170,7 +2006,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId13" name="Check Box 7">
+            <control shapeId="1031" r:id="rId10" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2192,7 +2028,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId14" name="Check Box 8">
+            <control shapeId="1032" r:id="rId11" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2214,7 +2050,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId15" name="Check Box 9">
+            <control shapeId="1033" r:id="rId12" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2236,7 +2072,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId16" name="Check Box 10">
+            <control shapeId="1034" r:id="rId13" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2258,7 +2094,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId17" name="Check Box 11">
+            <control shapeId="1035" r:id="rId14" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2280,7 +2116,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId18" name="Check Box 12">
+            <control shapeId="1036" r:id="rId15" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2302,7 +2138,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId19" name="Check Box 13">
+            <control shapeId="1037" r:id="rId16" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2324,7 +2160,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId20" name="Check Box 14">
+            <control shapeId="1038" r:id="rId17" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2346,7 +2182,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId21" name="Check Box 15">
+            <control shapeId="1039" r:id="rId18" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2368,7 +2204,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId22" name="Check Box 16">
+            <control shapeId="1040" r:id="rId19" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2390,7 +2226,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId23" name="Check Box 17">
+            <control shapeId="1041" r:id="rId20" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/TIQRI.ITS.Web/Content/Sample/assetBulk.xlsx
+++ b/TIQRI.ITS.Web/Content/Sample/assetBulk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psn\source\repos\Prod Release 18.03.2022\TQRAssets\TIQRI.ITS.Web\Content\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E3F96-C80B-4158-B229-DD13B3F1191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58782613-20EC-425F-A515-913BDE2C1CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{04F05535-2B92-4A99-B0B3-1A5D95034E61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04F05535-2B92-4A99-B0B3-1A5D95034E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Model</t>
   </si>
@@ -117,9 +117,6 @@
     <t>1 TB</t>
   </si>
   <si>
-    <t>Lenov</t>
-  </si>
-  <si>
     <t>DUSTIN</t>
   </si>
   <si>
@@ -177,7 +174,7 @@
     <t>name of user</t>
   </si>
   <si>
-    <t>&lt;if any&gt;</t>
+    <t>Lenovo</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B66B151-1845-43CE-8A5C-483B365D514D}">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1716,10 +1713,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1728,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -1737,13 +1734,13 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
         <v>14</v>
@@ -1761,7 +1758,7 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
         <v>5</v>
@@ -1770,7 +1767,7 @@
         <v>17</v>
       </c>
       <c r="V1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W1" t="s">
         <v>6</v>
@@ -1782,22 +1779,22 @@
         <v>18</v>
       </c>
       <c r="Z1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" t="s">
-        <v>42</v>
-      </c>
       <c r="AD1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -1805,34 +1802,28 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
@@ -1853,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
         <v>20</v>
